--- a/NformTester/NformTester/Keywordscripts/600.30.20.30_NoDuplicateGroupNameInLogicalGroupProperties.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.30.20.30_NoDuplicateGroupNameInLogicalGroupProperties.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-2415" yWindow="15" windowWidth="15480" windowHeight="11655"/>
@@ -1213,7 +1213,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7303" uniqueCount="811">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7303" uniqueCount="812">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3679,6 +3679,10 @@
   </si>
   <si>
     <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4646,7 +4650,7 @@
   <dimension ref="A1:O82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4778,7 +4782,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>785</v>
+        <v>811</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>197</v>
